--- a/20 開発資料/03.詳細設計/各種金額計算.xlsx
+++ b/20 開発資料/03.詳細設計/各種金額計算.xlsx
@@ -937,7 +937,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -1006,7 +1006,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>5</v>

--- a/20 開発資料/03.詳細設計/各種金額計算.xlsx
+++ b/20 開発資料/03.詳細設計/各種金額計算.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -353,6 +353,91 @@
     <t>抜</t>
     <rPh sb="0" eb="1">
       <t>ヌキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会場手配・見積登録画面</t>
+    <rPh sb="0" eb="2">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非課税(991330401) 会場費</t>
+  </si>
+  <si>
+    <t>非課税(991330401) 機材費</t>
+  </si>
+  <si>
+    <t>非課税(991330401) 飲食費</t>
+  </si>
+  <si>
+    <t>非課税(41120200) 宿泊費</t>
+  </si>
+  <si>
+    <t>非課税(41120200) 交通費</t>
+  </si>
+  <si>
+    <t>非課税(41120200) タクシー実車料金</t>
+  </si>
+  <si>
+    <t>非課税(41120200) 交通宿泊手配手数料</t>
+  </si>
+  <si>
+    <t>非課税(41120200) タクシー発券手数料</t>
+  </si>
+  <si>
+    <t>非課税(41120200) タクシー精算手数料</t>
+  </si>
+  <si>
+    <t>非課税(41120200) 人件費</t>
+  </si>
+  <si>
+    <t>非課税(41120200) その他</t>
+  </si>
+  <si>
+    <t>非課税(41120200) 管理費</t>
+  </si>
+  <si>
+    <t>課税(991330401) 会場費</t>
+  </si>
+  <si>
+    <t>課税(991330401) 機材費</t>
+  </si>
+  <si>
+    <t>課税(991330401) 飲食費</t>
+  </si>
+  <si>
+    <t>課税(991330401) 人件費</t>
+    <rPh sb="14" eb="17">
+      <t>ジンケンヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課税(991330401) その他</t>
+    <rPh sb="16" eb="17">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課税(991330401) 管理費</t>
+    <rPh sb="14" eb="17">
+      <t>カンリヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -361,7 +446,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
@@ -373,6 +458,20 @@
       <sz val="6"/>
       <name val="ＭＳ ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -578,60 +677,63 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -934,273 +1036,460 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:4" ht="12.75" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
+      <c r="A17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/20 開発資料/03.詳細設計/各種金額計算.xlsx
+++ b/20 開発資料/03.詳細設計/各種金額計算.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="176">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -440,13 +440,543 @@
       <t>カンリヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精算処理画面（参加者一覧CSV）</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>宿泊費</t>
+  </si>
+  <si>
+    <t>込</t>
+    <rPh sb="0" eb="1">
+      <t>コミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>画面からの入力値</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>宿泊費都税</t>
+  </si>
+  <si>
+    <t>画面からの入力値</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>JR代</t>
+  </si>
+  <si>
+    <t>航空券代</t>
+  </si>
+  <si>
+    <t>その他鉄道等費用</t>
+  </si>
+  <si>
+    <t>タクチケ発券手数料</t>
+  </si>
+  <si>
+    <t>登録手数料</t>
+  </si>
+  <si>
+    <t>タクチケ実車料金</t>
+  </si>
+  <si>
+    <t>タクチケシステムからの値</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タクチケ精算手数料</t>
+  </si>
+  <si>
+    <t>精算処理画面（MR一覧CSV）</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>社員宿泊費(非課税)</t>
+  </si>
+  <si>
+    <t>社員宿泊費都税(非課税)</t>
+  </si>
+  <si>
+    <t>社員交通費(非課税)</t>
+  </si>
+  <si>
+    <t>精算金額入力画面</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>会場費(非課税)991330404</t>
+  </si>
+  <si>
+    <t>入力値</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>機材費(非課税)991330404</t>
+  </si>
+  <si>
+    <t>飲食費(非課税)991330404</t>
+  </si>
+  <si>
+    <t>宿泊費(非課税)41120200</t>
+  </si>
+  <si>
+    <t>宿泊費都税(非課税)41120200</t>
+  </si>
+  <si>
+    <t>JR代(非課税)41120200</t>
+  </si>
+  <si>
+    <t>航空券代(非課税)41120200</t>
+  </si>
+  <si>
+    <t>その他鉄道等費用(非課税)41120200</t>
+  </si>
+  <si>
+    <t>タクチケ発券手数料(非課税)41120200</t>
+  </si>
+  <si>
+    <t>登録手数料(非課税)41120200</t>
+  </si>
+  <si>
+    <t>人件費(非課税)41120200</t>
+  </si>
+  <si>
+    <t>その他費(非課税)41120200</t>
+  </si>
+  <si>
+    <t>管理費(非課税)41120200</t>
+  </si>
+  <si>
+    <t>タクチケ実車料金(非課税)41120200</t>
+  </si>
+  <si>
+    <t>タクチケ精算手数料(非課税)41120200</t>
+  </si>
+  <si>
+    <t>会場費(課税)991330404</t>
+  </si>
+  <si>
+    <t>機材費(課税)991330404</t>
+  </si>
+  <si>
+    <t>飲食費(課税)991330404</t>
+  </si>
+  <si>
+    <t>人件費(課税)41120200</t>
+  </si>
+  <si>
+    <t>その他費(課税)41120200</t>
+  </si>
+  <si>
+    <t>管理費(課税)41120200</t>
+  </si>
+  <si>
+    <t>社員の国内旅費(宿泊)</t>
+  </si>
+  <si>
+    <t>社員の国内旅費(宿泊都税)</t>
+  </si>
+  <si>
+    <t>社員の国内旅費(JR/航空券)</t>
+  </si>
+  <si>
+    <t>タクチケ実車料金(課税)</t>
+  </si>
+  <si>
+    <t>タクチケ精算手数料(課税)</t>
+  </si>
+  <si>
+    <t>IFファイル　NZMi0023(交通宿泊)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>宿泊費（回答）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>抜</t>
+    <rPh sb="0" eb="1">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>画面からの入力値（都税は含まない）÷消費税率</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>宿泊取消料（回答）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>画面からの入力値÷消費税率</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>[回答] JR券代金</t>
+  </si>
+  <si>
+    <t>[回答] JR券取消料</t>
+  </si>
+  <si>
+    <t>[回答] その他鉄道等　代金</t>
+  </si>
+  <si>
+    <t>[回答] その他鉄道等　取消料</t>
+  </si>
+  <si>
+    <t>[回答] 航空券代金</t>
+  </si>
+  <si>
+    <t>[回答] 航空券取消料</t>
+  </si>
+  <si>
+    <t>[回答]手数料（交通宿泊）</t>
+  </si>
+  <si>
+    <t>[回答]手数料（タクチケ発券手数料）</t>
+  </si>
+  <si>
+    <t>[回答] MR交通費</t>
+  </si>
+  <si>
+    <t>[回答] MR宿泊費</t>
+  </si>
+  <si>
+    <t>IFファイル　NZMi0024(会場)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>[回答] 概算見積 (課税)</t>
+  </si>
+  <si>
+    <t>集計値</t>
+    <rPh sb="0" eb="2">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>[回答] 概算見積 (非課税)</t>
+  </si>
+  <si>
+    <t>[回答] 利用額 (合計)</t>
+  </si>
+  <si>
+    <t>【回答】　概算見積_会場費（非課税）991330401</t>
+  </si>
+  <si>
+    <t>画面からの入力値</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>【回答】　概算見積_機材費（非課税）991330401</t>
+  </si>
+  <si>
+    <t>【回答】　概算見積_飲食費（非課税）991330401</t>
+  </si>
+  <si>
+    <t>【回答】　991330401（非課税）小計</t>
+  </si>
+  <si>
+    <t>【回答】　概算見積_宿泊費（非課税）41120200</t>
+  </si>
+  <si>
+    <t>【回答】　概算見積_交通費（非課税）41120200</t>
+  </si>
+  <si>
+    <t>【回答】　概算見積_タクシー実車料金（非課税）41120200</t>
+  </si>
+  <si>
+    <t>【回答】　概算見積_交通宿泊手配手数料（非課税）41120200</t>
+  </si>
+  <si>
+    <t>【回答】　概算見積_タクシー発券手数料（非課税）41120200</t>
+  </si>
+  <si>
+    <t>【回答】　概算見積_タクシー精算手数料（非課税）41120200</t>
+  </si>
+  <si>
+    <t>【回答】　概算見積_人件費（非課税）41120200</t>
+  </si>
+  <si>
+    <t>【回答】　概算見積_その他（非課税）41120200　　</t>
+  </si>
+  <si>
+    <t>【回答】　概算見積_管理費（非課税）41120200　　</t>
+  </si>
+  <si>
+    <t>【回答】　41120200 （非課税）小計</t>
+  </si>
+  <si>
+    <t>【回答】　非課税合計</t>
+  </si>
+  <si>
+    <t>【回答】　概算見積_会場費（課税）991330401</t>
+  </si>
+  <si>
+    <t>【回答】　概算見積_機材費（課税）991330401</t>
+  </si>
+  <si>
+    <t>【回答】　概算見積_飲食費（課税）991330401</t>
+  </si>
+  <si>
+    <t>【回答】　991330401（課税）小計</t>
+  </si>
+  <si>
+    <t>【回答】　概算見積_人件費（課税）41120200</t>
+  </si>
+  <si>
+    <t>【回答】　概算見積_その他（課税）41120200</t>
+  </si>
+  <si>
+    <t>【回答】　概算見積_管理費（課税）41120200</t>
+  </si>
+  <si>
+    <t>【回答】　41120200（課税）小計</t>
+  </si>
+  <si>
+    <t>【回答】　課税合計</t>
+  </si>
+  <si>
+    <t>IFファイル　NZMi0026(精算)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>会場費（非課税）991330401</t>
+  </si>
+  <si>
+    <t>機材費（非課税）991330401</t>
+  </si>
+  <si>
+    <t>飲食費（非課税）991330401</t>
+  </si>
+  <si>
+    <t>991330401（非課税）小計</t>
+  </si>
+  <si>
+    <t>税抜計算後の金額の集計値</t>
+    <rPh sb="0" eb="2">
+      <t>ゼイヌキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>宿泊費（非課税金額）41120200</t>
+  </si>
+  <si>
+    <t>交通費_JR代（非課税）41120200</t>
+  </si>
+  <si>
+    <t>交通費_航空券代（非課税）41120200</t>
+  </si>
+  <si>
+    <t>交通費_その他私鉄・バス等交通費（非課税）41120200</t>
+  </si>
+  <si>
+    <t>タクシー実車料金（非課税）41120200</t>
+  </si>
+  <si>
+    <t>交通宿泊手配手数料（非課税）41120200</t>
+  </si>
+  <si>
+    <t>タクシー発券手数料（非課税）41120200</t>
+  </si>
+  <si>
+    <t>タクシー精算手数料（非課税）41120200</t>
+  </si>
+  <si>
+    <t>人件費（非課税）41120200</t>
+  </si>
+  <si>
+    <t>その他（非課税）41120200</t>
+  </si>
+  <si>
+    <t>管理費（非課税）41120200</t>
+  </si>
+  <si>
+    <t>41120200 （非課税）小計</t>
+  </si>
+  <si>
+    <t>非課税金額合計</t>
+  </si>
+  <si>
+    <t>会場費（課税）991330401</t>
+  </si>
+  <si>
+    <t>機材費（課税）991330401</t>
+  </si>
+  <si>
+    <t>飲食費（課税）991330401</t>
+  </si>
+  <si>
+    <t>991330401（課税）小計</t>
+  </si>
+  <si>
+    <t>人件費（課税）41120200</t>
+  </si>
+  <si>
+    <t>その他（課税）41120200</t>
+  </si>
+  <si>
+    <t>管理費（課税）41120200</t>
+  </si>
+  <si>
+    <t>41120200（課税）小計</t>
+  </si>
+  <si>
+    <t>課税金額合計</t>
+  </si>
+  <si>
+    <t>タクチケ実車料金（課税金額）</t>
+  </si>
+  <si>
+    <t>タクチケ精算代金（課税金額）</t>
+  </si>
+  <si>
+    <t>社員の国内旅費（JR/航空券）</t>
+  </si>
+  <si>
+    <t>社員の国内旅費（宿泊）</t>
+  </si>
+  <si>
+    <t>会場・機材（非課税）</t>
+    <rPh sb="0" eb="2">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キザイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>会場・機材（課税）</t>
+    <rPh sb="0" eb="2">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キザイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>宿泊・交通・タクチケ（非課税）</t>
+    <rPh sb="0" eb="2">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ヒカゼイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>画面からの入力値（都税を含む）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タクチケ（課税）</t>
+    <rPh sb="5" eb="7">
+      <t>カゼイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>社員旅費</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョヒ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SAP用CSV</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
@@ -474,6 +1004,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -677,7 +1214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,6 +1271,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,16 +1585,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
@@ -1463,29 +2012,1369 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17"/>
+    <row r="35" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A35" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A37" s="19"/>
+      <c r="B37" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A39" s="19"/>
+      <c r="B39" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A41" s="19"/>
+      <c r="B41" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A42" s="19"/>
+      <c r="B42" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A43" s="19"/>
+      <c r="B43" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A44" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A45" s="19"/>
+      <c r="B45" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A46" s="19"/>
+      <c r="B46" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A47" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A48" s="19"/>
+      <c r="B48" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A49" s="19"/>
+      <c r="B49" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A50" s="19"/>
+      <c r="B50" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A51" s="19"/>
+      <c r="B51" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A52" s="19"/>
+      <c r="B52" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A53" s="19"/>
+      <c r="B53" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A54" s="19"/>
+      <c r="B54" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A55" s="19"/>
+      <c r="B55" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A56" s="19"/>
+      <c r="B56" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A57" s="19"/>
+      <c r="B57" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A58" s="19"/>
+      <c r="B58" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A59" s="19"/>
+      <c r="B59" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A60" s="19"/>
+      <c r="B60" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A61" s="19"/>
+      <c r="B61" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A62" s="19"/>
+      <c r="B62" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A63" s="19"/>
+      <c r="B63" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A64" s="19"/>
+      <c r="B64" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A65" s="19"/>
+      <c r="B65" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A66" s="19"/>
+      <c r="B66" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A67" s="19"/>
+      <c r="B67" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A68" s="19"/>
+      <c r="B68" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A69" s="19"/>
+      <c r="B69" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A70" s="19"/>
+      <c r="B70" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A71" s="19"/>
+      <c r="B71" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A72" s="19"/>
+      <c r="B72" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A73" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A74" s="19"/>
+      <c r="B74" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A75" s="19"/>
+      <c r="B75" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A76" s="19"/>
+      <c r="B76" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A77" s="19"/>
+      <c r="B77" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A78" s="19"/>
+      <c r="B78" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A79" s="19"/>
+      <c r="B79" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A80" s="19"/>
+      <c r="B80" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A81" s="19"/>
+      <c r="B81" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A82" s="19"/>
+      <c r="B82" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A83" s="19"/>
+      <c r="B83" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A84" s="19"/>
+      <c r="B84" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A85" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A86" s="19"/>
+      <c r="B86" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A87" s="19"/>
+      <c r="B87" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A88" s="19"/>
+      <c r="B88" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A89" s="19"/>
+      <c r="B89" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A90" s="19"/>
+      <c r="B90" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A91" s="19"/>
+      <c r="B91" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A92" s="19"/>
+      <c r="B92" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A93" s="19"/>
+      <c r="B93" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A94" s="19"/>
+      <c r="B94" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A95" s="19"/>
+      <c r="B95" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A96" s="19"/>
+      <c r="B96" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A97" s="19"/>
+      <c r="B97" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A98" s="19"/>
+      <c r="B98" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A99" s="19"/>
+      <c r="B99" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A100" s="19"/>
+      <c r="B100" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A101" s="19"/>
+      <c r="B101" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A102" s="19"/>
+      <c r="B102" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A103" s="19"/>
+      <c r="B103" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A104" s="19"/>
+      <c r="B104" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D104" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A105" s="19"/>
+      <c r="B105" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A106" s="19"/>
+      <c r="B106" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A107" s="19"/>
+      <c r="B107" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A108" s="19"/>
+      <c r="B108" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A109" s="19"/>
+      <c r="B109" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A110" s="19"/>
+      <c r="B110" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A111" s="19"/>
+      <c r="B111" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D111" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A112" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A113" s="19"/>
+      <c r="B113" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A114" s="19"/>
+      <c r="B114" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A115" s="19"/>
+      <c r="B115" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A116" s="19"/>
+      <c r="B116" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A117" s="19"/>
+      <c r="B117" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A118" s="19"/>
+      <c r="B118" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A119" s="19"/>
+      <c r="B119" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D119" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A120" s="19"/>
+      <c r="B120" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D120" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A121" s="19"/>
+      <c r="B121" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D121" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A122" s="19"/>
+      <c r="B122" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D122" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A123" s="19"/>
+      <c r="B123" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D123" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A124" s="19"/>
+      <c r="B124" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D124" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A125" s="19"/>
+      <c r="B125" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D125" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A126" s="19"/>
+      <c r="B126" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D126" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A127" s="19"/>
+      <c r="B127" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D127" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A128" s="19"/>
+      <c r="B128" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A129" s="19"/>
+      <c r="B129" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D129" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A130" s="19"/>
+      <c r="B130" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D130" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A131" s="19"/>
+      <c r="B131" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D131" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A132" s="19"/>
+      <c r="B132" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D132" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A133" s="19"/>
+      <c r="B133" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A134" s="19"/>
+      <c r="B134" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D134" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A135" s="19"/>
+      <c r="B135" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D135" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A136" s="19"/>
+      <c r="B136" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A137" s="19"/>
+      <c r="B137" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D137" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A138" s="19"/>
+      <c r="B138" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D138" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A139" s="19"/>
+      <c r="B139" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D139" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A140" s="19"/>
+      <c r="B140" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D140" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A141" s="19"/>
+      <c r="B141" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D141" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A142" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B142" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D142" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A143" s="19"/>
+      <c r="B143" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D143" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A144" s="19"/>
+      <c r="B144" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D144" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A145" s="19"/>
+      <c r="B145" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D145" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A146" s="19"/>
+      <c r="B146" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D146" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A147" s="14"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
